--- a/results/escherichia_coli/Omics_Study/NBR_condition-specific_enrichment_analysis.xlsx
+++ b/results/escherichia_coli/Omics_Study/NBR_condition-specific_enrichment_analysis.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,216 +459,216 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.68398834533024e-43</v>
+        <v>1.143048013229763e-39</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4675324675324675</v>
+        <v>0.3790322580645161</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4675324675324675</v>
+        <v>0.3790322580645161</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.217601649570441e-41</v>
+        <v>4.715367379029593e-35</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4093959731543624</v>
+        <v>0.4213483146067415</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4093959731543624</v>
+        <v>0.4213483146067415</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.699518965077375e-26</v>
+        <v>3.032849727231874e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.85</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="E4" t="n">
-        <v>0.85</v>
+        <v>0.3896103896103896</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.664170106792701e-14</v>
+        <v>1.515150239404843e-11</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.5862068965517241</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8947368421052632</v>
+        <v>0.5862068965517241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.119665563911544e-10</v>
+        <v>3.885725323271872e-11</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4482758620689655</v>
+        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.506843319315241e-09</v>
+        <v>1.580867451790419e-10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3469387755102041</v>
+        <v>0.6</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3469387755102041</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.001230997895799e-09</v>
+        <v>1.548257504433887e-08</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.5416666666666666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.162371326268606e-08</v>
+        <v>2.363567468442878e-07</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4067796610169492</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4067796610169492</v>
+        <v>0.3396226415094339</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.626991159987919e-08</v>
+        <v>1.861062846577575e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.232632077723045e-08</v>
+        <v>1.064137997057321e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.75</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.149718322163602e-07</v>
+        <v>6.133380099306806e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.2678571428571428</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -676,56 +676,56 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6.487060821372688e-06</v>
+        <v>0.0001332682557481358</v>
       </c>
       <c r="D13" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.2926829268292683</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.587658116624708e-05</v>
+        <v>0.0002884186307748164</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.202020202020202</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5263157894736842</v>
+        <v>0.202020202020202</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0003548835528315391</v>
+        <v>0.0006875655449552809</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -733,265 +733,265 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0009096354315491598</v>
+        <v>0.001656479164730943</v>
       </c>
       <c r="D16" t="n">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E16" t="n">
-        <v>0.625</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.001970377751733842</v>
+        <v>0.006586692777312656</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.1452513966480447</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.1452513966480447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.01514338791385957</v>
+        <v>0.008026378526945524</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1941747572815534</v>
+        <v>0.4</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1941747572815534</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.02963940032179346</v>
+        <v>0.04865554678876716</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.04094598108535925</v>
+        <v>0.05037608292019956</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.1794871794871795</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2941176470588235</v>
+        <v>0.1794871794871795</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.07040107572567374</v>
+        <v>0.06525506440378356</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.07656823270515184</v>
+        <v>0.09229656138053947</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.07897172346011255</v>
+        <v>0.139045743900836</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1033132522725646</v>
+        <v>0.2172416680570521</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2045047952791922</v>
+        <v>0.3078876164180066</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.25</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.2430327649881648</v>
+        <v>0.3539512255844184</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.2933594260481046</v>
+        <v>0.3847582829639754</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1411764705882353</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1411764705882353</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.3322248404200919</v>
+        <v>0.3847582829639754</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.7921465374994026</v>
+        <v>0.6017618258091643</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -999,79 +999,79 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.8037081866597213</v>
+        <v>0.6688293487041006</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E30" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.865291650313074</v>
+        <v>0.8906887526808273</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0625</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0625</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9427445396898724</v>
+        <v>0.9525020173347872</v>
       </c>
       <c r="D32" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0303030303030303</v>
       </c>
       <c r="E32" t="n">
-        <v>0.05405405405405406</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9565366678226008</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1086,11 +1086,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1124,11 +1124,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1143,7 +1143,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -1157,25 +1157,6 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Metabolite Repair</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1190,7 +1171,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1222,7 +1203,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1230,18 +1211,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.294992222707263e-54</v>
+        <v>6.455961074626538e-39</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5281385281385281</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5281385281385281</v>
+        <v>0.449438202247191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -1249,265 +1230,265 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.71656621470351e-42</v>
+        <v>1.709642075043209e-37</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4228187919463087</v>
+        <v>0.375</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4228187919463087</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.326824027282961e-15</v>
+        <v>3.423516947951514e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.6153846153846154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7.33101641117613e-14</v>
+        <v>9.967729078034082e-14</v>
       </c>
       <c r="D5" t="n">
-        <v>0.625</v>
+        <v>0.4025974025974026</v>
       </c>
       <c r="E5" t="n">
-        <v>0.625</v>
+        <v>0.4025974025974026</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.284831940067871e-09</v>
+        <v>3.192691421072803e-12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.4528301886792453</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3571428571428572</v>
+        <v>0.4528301886792453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>8.051410595454321e-09</v>
+        <v>7.938959401194167e-12</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.99759971126597e-08</v>
+        <v>4.217398739573398e-09</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4067796610169492</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4067796610169492</v>
+        <v>0.5172413793103449</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.476111301353943e-07</v>
+        <v>8.592257176358949e-09</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.6875</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2608695652173913</v>
+        <v>0.6875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.42252270268873e-07</v>
+        <v>4.376678388133309e-08</v>
       </c>
       <c r="D10" t="n">
-        <v>0.631578947368421</v>
+        <v>0.52</v>
       </c>
       <c r="E10" t="n">
-        <v>0.631578947368421</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.942792685908371e-07</v>
+        <v>2.060658826831906e-05</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3106796116504854</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3106796116504854</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.837176493991906e-07</v>
+        <v>2.147936401308093e-05</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2.686031691913362e-06</v>
+        <v>0.0001811273999408624</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.2926829268292683</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.205054495290094e-05</v>
+        <v>0.008992893968769998</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.4</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3902439024390244</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>7.673241502140489e-05</v>
+        <v>0.01759669380073793</v>
       </c>
       <c r="D15" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="E15" t="n">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0002896976254005762</v>
+        <v>0.02997895191194874</v>
       </c>
       <c r="D16" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="E16" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1515,94 +1496,94 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.002652670420739603</v>
+        <v>0.04066150384868512</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E17" t="n">
-        <v>0.4117647058823529</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.002975022098777242</v>
+        <v>0.05293032567167175</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.1284916201117318</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.1284916201117318</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.03645919889233188</v>
+        <v>0.112530811386879</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1358024691358025</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1358024691358025</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1059913845200603</v>
+        <v>0.149148372002723</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2097309530971854</v>
+        <v>0.1596038890896121</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.25</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1923076923076923</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1610,7 +1591,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2313327102244941</v>
+        <v>0.1732200079985064</v>
       </c>
       <c r="D22" t="n">
         <v>0.5</v>
@@ -1621,64 +1602,64 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.2430056840509847</v>
+        <v>0.5533969110197489</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1529411764705882</v>
+        <v>0.1</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1529411764705882</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3543757788343972</v>
+        <v>0.6140442568881932</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Pentose Phosphate Pathway</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4615782456744452</v>
+        <v>0.7604374603993901</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1686,32 +1667,32 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.7261495856809679</v>
+        <v>0.7604374603993901</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1</v>
+        <v>0.06666666666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.7320146504504771</v>
+        <v>0.8986200511983271</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="28">
@@ -1720,55 +1701,55 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8418941353495302</v>
+        <v>0.8986200511983271</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="E28" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.8785831712056263</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Histidine Metabolism</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>1</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0.9578286600694301</v>
-      </c>
       <c r="D30" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1777,26 +1758,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9630560126903916</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1815,7 +1796,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1830,11 +1811,11 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1849,11 +1830,11 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1868,11 +1849,11 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1887,11 +1868,11 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1906,11 +1887,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1920,25 +1901,6 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Metabolite Repair</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1953,7 +1915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1985,7 +1947,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1993,18 +1955,18 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3.958080537892495e-94</v>
+        <v>5.322513567609123e-93</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7359550561797753</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.7359550561797753</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -2012,474 +1974,474 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.436505650209915e-60</v>
+        <v>2.371228010208708e-53</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5234899328859061</v>
+        <v>0.4798387096774194</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5234899328859061</v>
+        <v>0.4798387096774194</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.548622629403486e-27</v>
+        <v>1.081506695218386e-16</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.584234286884112e-11</v>
+        <v>2.094839249074944e-15</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.4141414141414141</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.4141414141414141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.078830610020809e-11</v>
+        <v>4.414478368993422e-14</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.9375</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6216216216216216</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.227189987468897e-11</v>
+        <v>4.921424652842508e-10</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4077669902912621</v>
+        <v>0.3766233766233766</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4077669902912621</v>
+        <v>0.3766233766233766</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.164412947891298e-05</v>
+        <v>5.644703879598325e-09</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5789473684210527</v>
+        <v>0.5517241379310345</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.849453922297926e-05</v>
+        <v>0.000104702077102142</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2959183673469388</v>
+        <v>0.2592592592592592</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2959183673469388</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0001066217198043889</v>
+        <v>0.0005945150421175284</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3389830508474576</v>
+        <v>0.375</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3389830508474576</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0001789062900875837</v>
+        <v>0.0006439667619953018</v>
       </c>
       <c r="D11" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="E11" t="n">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0007932954203446645</v>
+        <v>0.0008405493964776008</v>
       </c>
       <c r="D12" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.36</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3103448275862069</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.001038011642579004</v>
+        <v>0.003506903313062679</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6</v>
+        <v>0.2682926829268293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.001060760997991758</v>
+        <v>0.003756550987664505</v>
       </c>
       <c r="D14" t="n">
-        <v>0.3414634146341464</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3414634146341464</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.002770956581088932</v>
+        <v>0.0172459737904407</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.4</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.004078106732211974</v>
+        <v>0.0590839140590444</v>
       </c>
       <c r="D16" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
       <c r="E16" t="n">
-        <v>0.375</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.006896193265202506</v>
+        <v>0.07233229749180134</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2470588235294118</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2470588235294118</v>
+        <v>0.2666666666666667</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.009254459353146697</v>
+        <v>0.07868559939692513</v>
       </c>
       <c r="D18" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.1785714285714286</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.009962046943534912</v>
+        <v>0.1132796921498247</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2065217391304348</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2065217391304348</v>
+        <v>0.2083333333333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.0103447650425068</v>
+        <v>0.1179546343580702</v>
       </c>
       <c r="D20" t="n">
-        <v>0.75</v>
+        <v>0.169811320754717</v>
       </c>
       <c r="E20" t="n">
-        <v>0.75</v>
+        <v>0.169811320754717</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.02208549308438808</v>
+        <v>0.2065656568505402</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.1309099030543604</v>
+        <v>0.2893495081517592</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1515151515151515</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.1558309259878403</v>
+        <v>0.3088925527026249</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1229050279329609</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.1229050279329609</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1777429382189318</v>
+        <v>0.3705353286814596</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.2651025393847468</v>
+        <v>0.4963702701015089</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.3169609822684962</v>
+        <v>0.4963702701015089</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4457097727976546</v>
+        <v>0.4995137450824806</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1764705882352941</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -2487,132 +2449,132 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.6147167813227942</v>
+        <v>0.4995137450824806</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.6867986684977603</v>
+        <v>0.5179373942530441</v>
       </c>
       <c r="D29" t="n">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E29" t="n">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.7502654513259608</v>
+        <v>0.6859142934330509</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.7859842670692014</v>
+        <v>0.7203059680392867</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.7859842670692014</v>
+        <v>0.7509391239206982</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.8653385270163259</v>
+        <v>0.9220478863359036</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="E33" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.04545454545454546</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.8908469846164947</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -2620,41 +2582,41 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.9152995937650938</v>
+        <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Purine and Pyrimidine Biosynthesis</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.9665264162105864</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2669,11 +2631,11 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2683,25 +2645,6 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Metabolite Repair</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
         <v>0</v>
       </c>
     </row>

--- a/results/escherichia_coli/Omics_Study/NBR_condition-specific_enrichment_analysis.xlsx
+++ b/results/escherichia_coli/Omics_Study/NBR_condition-specific_enrichment_analysis.xlsx
@@ -7,9 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-EX_glu__L_e8.33_Presence" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-EX_gly_e3.33_Presence" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-EX_thr__L_e6.67_Presence" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-EX_glu__L_e8.33" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-EX_gly_e3.33" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="m9-EX_glc__D_e10.0-EX_thr__L_e6.66" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,116 +459,116 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.143048013229763e-39</v>
+        <v>1.03003181891419e-106</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3790322580645161</v>
+        <v>0.9111111111111111</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3790322580645161</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.715367379029593e-35</v>
+        <v>1.310540611079876e-08</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4213483146067415</v>
+        <v>0.475609756097561</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4213483146067415</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.032849727231874e-13</v>
+        <v>2.582210909033636e-06</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3896103896103896</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3896103896103896</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.515150239404843e-11</v>
+        <v>0.003186105495612372</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5862068965517241</v>
+        <v>0.3795180722891566</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5862068965517241</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.885725323271872e-11</v>
+        <v>0.004394028905925799</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5294117647058824</v>
+        <v>0.4</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5294117647058824</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.580867451790419e-10</v>
+        <v>0.0231312648178753</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
@@ -577,364 +577,364 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.548257504433887e-08</v>
+        <v>0.05428129685495419</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5416666666666666</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5416666666666666</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.363567468442878e-07</v>
+        <v>0.07841283736002391</v>
       </c>
       <c r="D9" t="n">
-        <v>0.3396226415094339</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3396226415094339</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.861062846577575e-06</v>
+        <v>0.370256875974256</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5625</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.5625</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.064137997057321e-05</v>
+        <v>0.3764277682580867</v>
       </c>
       <c r="D11" t="n">
-        <v>0.75</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="E11" t="n">
-        <v>0.75</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6.133380099306806e-05</v>
+        <v>0.5701624217732228</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2678571428571428</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2678571428571428</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Arginine and Proline Metabolism</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.0001332682557481358</v>
+        <v>0.6065013013603701</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2926829268292683</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2926829268292683</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0002884186307748164</v>
+        <v>0.6178261236346476</v>
       </c>
       <c r="D14" t="n">
-        <v>0.202020202020202</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E14" t="n">
-        <v>0.202020202020202</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0006875655449552809</v>
+        <v>0.8301868467782336</v>
       </c>
       <c r="D15" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="E15" t="n">
-        <v>0.3333333333333333</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.001656479164730943</v>
+        <v>0.8626729708200525</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E16" t="n">
-        <v>0.5714285714285714</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Pyruvate Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.006586692777312656</v>
+        <v>0.869574257720883</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1452513966480447</v>
+        <v>0.2</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1452513966480447</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.008026378526945524</v>
+        <v>0.9276767364956943</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.04865554678876716</v>
+        <v>0.9502945327208441</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.125</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1481481481481481</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.05037608292019956</v>
+        <v>0.9618998821478483</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1794871794871795</v>
+        <v>0.2</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1794871794871795</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.06525506440378356</v>
+        <v>0.965872129650661</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2727272727272727</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.09229656138053947</v>
+        <v>0.9891487688555064</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2</v>
+        <v>0.2302158273381295</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.139045743900836</v>
+        <v>0.9923500292525119</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.2172416680570521</v>
+        <v>0.9964377914097522</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.3078876164180066</v>
+        <v>0.9964377914097522</v>
       </c>
       <c r="D25" t="n">
-        <v>0.25</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.3539512255844184</v>
+        <v>0.9998266759521796</v>
       </c>
       <c r="D26" t="n">
-        <v>0.125</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E26" t="n">
-        <v>0.125</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -942,117 +942,117 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.3847582829639754</v>
+        <v>0.9999962939259299</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1333333333333333</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.3847582829639754</v>
+        <v>0.9999999591288079</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1333333333333333</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.6017618258091643</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1</v>
+        <v>0.091324200913242</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6688293487041006</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08333333333333333</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.8906887526808273</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.04166666666666666</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.9525020173347872</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0303030303030303</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0303030303030303</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1062,12 +1062,12 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -1081,16 +1081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1100,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1119,16 +1119,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1157,7 +1157,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pentose Phosphate Pathway</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Purine and Pyrimidine Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1171,7 +1209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1203,64 +1241,64 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.455961074626538e-39</v>
+        <v>5.542012565967709e-22</v>
       </c>
       <c r="D2" t="n">
-        <v>0.449438202247191</v>
+        <v>0.4186746987951807</v>
       </c>
       <c r="E2" t="n">
-        <v>0.449438202247191</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.709642075043209e-37</v>
+        <v>6.381813134736918e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.375</v>
+        <v>0.4205128205128205</v>
       </c>
       <c r="E3" t="n">
-        <v>0.375</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.423516947951514e-16</v>
+        <v>4.057739733961251e-12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.4626865671641791</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6153846153846154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -1268,341 +1306,341 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.967729078034082e-14</v>
+        <v>0.000460288918852096</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4025974025974026</v>
+        <v>0.3237410071942446</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4025974025974026</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.192691421072803e-12</v>
+        <v>0.001832507034497344</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4528301886792453</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4528301886792453</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7.938959401194167e-12</v>
+        <v>0.01569894461114718</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.2601626016260163</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3333333333333333</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.217398739573398e-09</v>
+        <v>0.03282976002770689</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5172413793103449</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5172413793103449</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8.592257176358949e-09</v>
+        <v>0.05009585985783573</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6875</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6875</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4.376678388133309e-08</v>
+        <v>0.07205973095719589</v>
       </c>
       <c r="D10" t="n">
-        <v>0.52</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="E10" t="n">
-        <v>0.52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.060658826831906e-05</v>
+        <v>0.2660060444054813</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4166666666666667</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2.147936401308093e-05</v>
+        <v>0.2911945071659408</v>
       </c>
       <c r="D12" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2857142857142857</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pyruvate Metabolism</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3354682841401287</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E13" t="n">
         <v>10</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Arginine and Proline Metabolism</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0001811273999408624</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.2926829268292683</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.2926829268292683</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.008992893968769998</v>
+        <v>0.4782570026950169</v>
       </c>
       <c r="D14" t="n">
-        <v>0.4</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="E14" t="n">
-        <v>0.4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.01759669380073793</v>
+        <v>0.5688396407556551</v>
       </c>
       <c r="D15" t="n">
-        <v>0.25</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="E15" t="n">
-        <v>0.25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.02997895191194874</v>
+        <v>0.5773752525942305</v>
       </c>
       <c r="D16" t="n">
-        <v>0.2058823529411765</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2058823529411765</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.04066150384868512</v>
+        <v>0.599603551479077</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2666666666666667</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.05293032567167175</v>
+        <v>0.6388014019881436</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1284916201117318</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1284916201117318</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.112530811386879</v>
+        <v>0.8596515733004391</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1358024691358025</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1358024691358025</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.149148372002723</v>
+        <v>0.9679553102860363</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E20" t="n">
-        <v>0.2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.1596038890896121</v>
+        <v>0.9679553102860363</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.1732200079985064</v>
+        <v>0.979838748834991</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1610,117 +1648,117 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.5533969110197489</v>
+        <v>0.9872463714783735</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.6140442568881932</v>
+        <v>0.9949323227639918</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.7604374603993901</v>
+        <v>0.9993262536959295</v>
       </c>
       <c r="D25" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="E25" t="n">
-        <v>0.06666666666666667</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.7604374603993901</v>
+        <v>0.9999997414901892</v>
       </c>
       <c r="D26" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.0867579908675799</v>
       </c>
       <c r="E26" t="n">
-        <v>0.06666666666666667</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8986200511983271</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04166666666666666</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8986200511983271</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.04166666666666666</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.04166666666666666</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1730,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1749,16 +1787,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1768,16 +1806,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1787,16 +1825,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1806,16 +1844,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1825,16 +1863,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1844,12 +1882,12 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -1863,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1882,16 +1920,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>324</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1901,7 +1939,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pentose Phosphate Pathway</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Purine and Pyrimidine Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1915,7 +1991,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1947,619 +2023,619 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alternate Carbon Metabolism</t>
+          <t>Transport, Outer Membrane Porin</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5.322513567609123e-93</v>
+        <v>6.576234262779979e-103</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7359550561797753</v>
+        <v>0.8925925925925926</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7359550561797753</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Transport, Inner Membrane</t>
+          <t>Alternate Carbon Metabolism</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.371228010208708e-53</v>
+        <v>1.735493864226409e-23</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4798387096774194</v>
+        <v>0.6358974358974359</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4798387096774194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pyruvate Metabolism</t>
+          <t>Nitrogen Metabolism</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.081506695218386e-16</v>
+        <v>7.858118703312492e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6666666666666666</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oxidative Phosphorylation</t>
+          <t>Transport, Inner Membrane</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.094839249074944e-15</v>
+        <v>0.00207614845381912</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4141414141414141</v>
+        <v>0.3734939759036144</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4141414141414141</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nitrogen Metabolism</t>
+          <t>Murein Recycling</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.414478368993422e-14</v>
+        <v>0.01953623638779339</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9375</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9375</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Nucleotide Salvage Pathway</t>
+          <t>Oxidative Phosphorylation</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4.921424652842508e-10</v>
+        <v>0.02275500298082502</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3766233766233766</v>
+        <v>0.4423076923076923</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3766233766233766</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Murein Recycling</t>
+          <t>Nucleotide Salvage Pathway</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5.644703879598325e-09</v>
+        <v>0.0268859826163255</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5517241379310345</v>
+        <v>0.381294964028777</v>
       </c>
       <c r="E8" t="n">
-        <v>0.5517241379310345</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Inorganic Ion Transport and Metabolism</t>
+          <t>Glycerophospholipid Metabolism</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.000104702077102142</v>
+        <v>0.1271651474199799</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.3373983739837398</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2592592592592592</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Glycerophospholipid Metabolism</t>
+          <t>Glycine and Serine Metabolism</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.0005945150421175284</v>
+        <v>0.6560614637374829</v>
       </c>
       <c r="D10" t="n">
-        <v>0.375</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E10" t="n">
-        <v>0.375</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Methylglyoxal Metabolism</t>
+          <t>Cysteine Metabolism</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.0006439667619953018</v>
+        <v>0.8057799410813477</v>
       </c>
       <c r="D11" t="n">
-        <v>0.625</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="E11" t="n">
-        <v>0.625</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cysteine Metabolism</t>
+          <t>Methylglyoxal Metabolism</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.0008405493964776008</v>
+        <v>0.8106713432880692</v>
       </c>
       <c r="D12" t="n">
-        <v>0.36</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E12" t="n">
-        <v>0.36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pyruvate Metabolism</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8566051160865076</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E13" t="n">
         <v>10</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Arginine and Proline Metabolism</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.003506903313062679</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.2682926829268293</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.2682926829268293</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane Porin</t>
+          <t>Glutamate Metabolism</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.003756550987664505</v>
+        <v>0.8861482941585386</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E14" t="n">
-        <v>0.5714285714285714</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Murein Biosynthesis</t>
+          <t>Arginine and Proline Metabolism</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.0172459737904407</v>
+        <v>0.8994746202597946</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4</v>
+        <v>0.225</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Threonine and Lysine Metabolism</t>
+          <t>tRNA Charging</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.0590839140590444</v>
+        <v>0.937140926210998</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Glycine and Serine Metabolism</t>
+          <t>Threonine and Lysine Metabolism</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.07233229749180134</v>
+        <v>0.9573036489081659</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2666666666666667</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
+          <t>Folate Metabolism</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.07868559939692513</v>
+        <v>0.9616720216829356</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1785714285714286</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1785714285714286</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>tRNA Charging</t>
+          <t>Glycolysis/Gluconeogenesis</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.1132796921498247</v>
+        <v>0.9813167724254889</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2083333333333333</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2083333333333333</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Cell Envelope Biosynthesis</t>
+          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.1179546343580702</v>
+        <v>0.9859223760722163</v>
       </c>
       <c r="D20" t="n">
-        <v>0.169811320754717</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="E20" t="n">
-        <v>0.169811320754717</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Biomass and maintenance functions</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.2065656568505402</v>
+        <v>0.9940908872506126</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E21" t="n">
-        <v>0.5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Glycolysis/Gluconeogenesis</t>
+          <t>Methionine Metabolism</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.2893495081517592</v>
+        <v>0.9956761319884772</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1515151515151515</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cofactor and Prosthetic Group Biosynthesis</t>
+          <t>Murein Biosynthesis</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.3088925527026249</v>
+        <v>0.9956761319884772</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1229050279329609</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1229050279329609</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Glyoxylate Metabolism</t>
+          <t>Lipopolysaccharide Biosynthesis / Recycling</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.3705353286814596</v>
+        <v>0.9971545523184101</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Tyrosine, Tryptophan, and Phenylalanine Metabolism</t>
+          <t>Inorganic Ion Transport and Metabolism</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.4963702701015089</v>
+        <v>0.9999945909551444</v>
       </c>
       <c r="D25" t="n">
-        <v>0.125</v>
+        <v>0.1339285714285714</v>
       </c>
       <c r="E25" t="n">
-        <v>0.125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transport, Outer Membrane</t>
+          <t>Cell Envelope Biosynthesis</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.4963702701015089</v>
+        <v>0.9999975735208818</v>
       </c>
       <c r="D26" t="n">
-        <v>0.125</v>
+        <v>0.1417910447761194</v>
       </c>
       <c r="E26" t="n">
-        <v>0.125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Methionine Metabolism</t>
+          <t>Transport, Outer Membrane</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.4995137450824806</v>
+        <v>0.9999999502525846</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1333333333333333</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pentose Phosphate Pathway</t>
+          <t>Cofactor and Prosthetic Group Biosynthesis</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.4995137450824806</v>
+        <v>0.9999999999999992</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.091324200913242</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1333333333333333</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Unassigned</t>
+          <t>Intracellular demand</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5179373942530441</v>
+        <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1176470588235294</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1176470588235294</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Folate Metabolism</t>
+          <t>Citric Acid Cycle</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.6859142934330509</v>
+        <v>1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Glutamate Metabolism</t>
+          <t>Alanine and Aspartate Metabolism</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.7203059680392867</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09090909090909091</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.09090909090909091</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Alanine and Aspartate Metabolism</t>
+          <t>Histidine Metabolism</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.7509391239206982</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08333333333333333</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08333333333333333</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Citric Acid Cycle</t>
+          <t>Glyoxylate Metabolism</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.9220478863359036</v>
+        <v>1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.04545454545454546</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.04545454545454546</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Membrane Lipid Metabolism</t>
+          <t>Valine, Leucine, and Isoleucine Metabolism</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -2569,16 +2645,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Valine, Leucine, and Isoleucine Metabolism</t>
+          <t>Membrane Lipid Metabolism</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -2588,16 +2664,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Purine and Pyrimidine Biosynthesis</t>
+          <t>Biomass and maintenance functions</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -2607,16 +2683,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Histidine Metabolism</t>
+          <t>Anaplerotic Reactions</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -2626,16 +2702,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Anaplerotic Reactions</t>
+          <t>Extracellular exchange</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -2645,7 +2721,45 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Pentose Phosphate Pathway</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Purine and Pyrimidine Biosynthesis</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
